--- a/coinalyze_data.xlsx
+++ b/coinalyze_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +436,77 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Normal Futures CP ($)</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Normal Futures OI ($)</t>
+          <t>PERP OI (USD)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Normal Futures OI (B)</t>
+          <t>NORMAL OI (USD)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PERP CP ($)</t>
+          <t>NORMAL Close Price (USD)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PERP OI ($)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PERP OI (B)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total OI ($)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total OI (B)</t>
+          <t>PERP Close Price (USD)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>95840.00999999999</v>
+      <c r="A2" t="n">
+        <v>1741046400</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-03-04 00:00:00</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>28518515</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28518515.00</t>
-        </is>
+        <v>21573258651.85934</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22985402533.87384</v>
       </c>
       <c r="E2" t="n">
-        <v>95807.8</v>
+        <v>87253.07000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>2161364600</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.16B</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2189883115</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2.19B</t>
-        </is>
+        <v>87215.89999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1741132800</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22853593725.20132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24274304781.68022</v>
+      </c>
+      <c r="E3" t="n">
+        <v>90294.11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>90228.60000000001</v>
       </c>
     </row>
   </sheetData>

--- a/coinalyze_data.xlsx
+++ b/coinalyze_data.xlsx
@@ -467,46 +467,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1741046400</v>
+        <v>1741132800</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-04 00:00:00</t>
+          <t>2025-03-05 00:00:00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21573258651.85934</v>
+        <v>22831901871.55361</v>
       </c>
       <c r="D2" t="n">
-        <v>22985402533.87384</v>
+        <v>24252022523.07731</v>
       </c>
       <c r="E2" t="n">
-        <v>87253.07000000001</v>
+        <v>90612.12</v>
       </c>
       <c r="F2" t="n">
-        <v>87215.89999999999</v>
+        <v>90548.10000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1741132800</v>
+        <v>1741219200</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-05 00:00:00</t>
+          <t>2025-03-06 00:00:00</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22853593725.20132</v>
+        <v>22972321189.26739</v>
       </c>
       <c r="D3" t="n">
-        <v>24274304781.68022</v>
+        <v>24397468079.37269</v>
       </c>
       <c r="E3" t="n">
-        <v>90294.11</v>
+        <v>89585.25999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>90228.60000000001</v>
+        <v>89513.89999999999</v>
       </c>
     </row>
   </sheetData>

--- a/coinalyze_data.xlsx
+++ b/coinalyze_data.xlsx
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22972321189.26739</v>
+        <v>22950771235.97675</v>
       </c>
       <c r="D3" t="n">
-        <v>24397468079.37269</v>
+        <v>24375759418.22945</v>
       </c>
       <c r="E3" t="n">
-        <v>89585.25999999999</v>
+        <v>89718.73</v>
       </c>
       <c r="F3" t="n">
-        <v>89513.89999999999</v>
+        <v>89675</v>
       </c>
     </row>
   </sheetData>

--- a/coinalyze_data.xlsx
+++ b/coinalyze_data.xlsx
@@ -467,46 +467,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1741132800</v>
+        <v>1741564800</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-05 00:00:00</t>
+          <t>2025-03-10 00:00:00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22831901871.55361</v>
+        <v>20838629226.83</v>
       </c>
       <c r="D2" t="n">
-        <v>24252022523.07731</v>
-      </c>
-      <c r="E2" t="n">
-        <v>90612.12</v>
-      </c>
-      <c r="F2" t="n">
-        <v>90548.10000000001</v>
+        <v>22268071183.59</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78,554.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78,534</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1741219200</v>
+        <v>1741651200</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-06 00:00:00</t>
+          <t>2025-03-11 00:00:00</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22950771235.97675</v>
+        <v>20928584797.11</v>
       </c>
       <c r="D3" t="n">
-        <v>24375759418.22945</v>
-      </c>
-      <c r="E3" t="n">
-        <v>89718.73</v>
-      </c>
-      <c r="F3" t="n">
-        <v>89675</v>
+        <v>22362692878.05</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80,329.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>80,363.0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/coinalyze_data.xlsx
+++ b/coinalyze_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,84 +436,73 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Timestamp</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>PERP OI (USD)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PERP OI (USD)</t>
+          <t>NORMAL OI (USD)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NORMAL OI (USD)</t>
+          <t>NORMAL Close Price (USD)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>NORMAL Close Price (USD)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PERP Close Price (USD)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1741564800</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-03-10 00:00:00</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21194481117.86</v>
       </c>
       <c r="C2" t="n">
-        <v>20838629226.83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22268071183.59</v>
+        <v>22625215885.68</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82,887.0</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78,554.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>78,534</t>
+          <t>82,874.0</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1741651200</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-03-11 00:00:00</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20896432923.26</v>
       </c>
       <c r="C3" t="n">
-        <v>20928584797.11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22362692878.05</v>
+        <v>22317178272.48</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80,930.0</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80,329.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>80,363.0</t>
+          <t>80,835</t>
         </is>
       </c>
     </row>
